--- a/spark-cv/data/cv_entries.xlsx
+++ b/spark-cv/data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\spark-brc_gits\spark-brc.github.io\spark-cv\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seonggyu.park/Documents/spark_gits/spark-web/public/spark-cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8204056-AA5F-4AFE-9C9F-FA39CE5BA2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3753881A-CAAB-5140-8569-5DB95987D79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="28800" windowHeight="23550" xr2:uid="{658FACE9-883F-4F49-B936-65547CAA7E51}"/>
+    <workbookView xWindow="18580" yWindow="-31220" windowWidth="38000" windowHeight="30960" xr2:uid="{658FACE9-883F-4F49-B936-65547CAA7E51}"/>
   </bookViews>
   <sheets>
     <sheet name="cv_entries" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="166">
   <si>
     <t>type</t>
   </si>
@@ -408,9 +408,6 @@
     <t>Assessment of spatio-temporal variation of water resource and fluxes using integrated models</t>
   </si>
   <si>
-    <t xml:space="preserve">Jun. 23, 2022 </t>
-  </si>
-  <si>
     <t>2022 UST Global Mentoring Conference</t>
   </si>
   <si>
@@ -453,9 +450,6 @@
     <t>April 18-21, 2023</t>
   </si>
   <si>
-    <t xml:space="preserve">Jun. 30, 2023 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Uncertainty Quantification of Nitrate Transport Simulation for Integrated Hydrological Models </t>
   </si>
   <si>
@@ -475,6 +469,69 @@
   </si>
   <si>
     <t>College Station, Texas, United States</t>
+  </si>
+  <si>
+    <t>July 24-26, 2024</t>
+  </si>
+  <si>
+    <t>Integrated Hydrological Modeling Practices and Uncertainty Analysis</t>
+  </si>
+  <si>
+    <t>Korea Institute of Geoscience and Mineral Resources</t>
+  </si>
+  <si>
+    <t>Daejeon, South Korea</t>
+  </si>
+  <si>
+    <t>Introduction to modeling practices for predicting Carbon dynamics and GHG emissions in croplands</t>
+  </si>
+  <si>
+    <t>USDA Agricultural Research Service</t>
+  </si>
+  <si>
+    <t>Jonesboro, AK, United States</t>
+  </si>
+  <si>
+    <t>Jun. 19, 2024</t>
+  </si>
+  <si>
+    <t>Jun. 30, 2023</t>
+  </si>
+  <si>
+    <t>Jun. 23, 2022</t>
+  </si>
+  <si>
+    <t>Jan. 9, 2025</t>
+  </si>
+  <si>
+    <t>Reproducible framework for model calibration and uncertainty analysis</t>
+  </si>
+  <si>
+    <t>Fall 2024</t>
+  </si>
+  <si>
+    <t>Co-promotor</t>
+  </si>
+  <si>
+    <t>Master program in Water and Climate Department, Vrije Universiteit Brussel</t>
+  </si>
+  <si>
+    <t>Brussel, Belguim</t>
+  </si>
+  <si>
+    <t>Spring 2025</t>
+  </si>
+  <si>
+    <t>Kangwei Shin from China, Master program in Civil &amp; Environmental Engineering, Hanbat National University, Chair: Jin Chul Joo</t>
+  </si>
+  <si>
+    <t>Suryeon Kim from China, Master program in Civil &amp; Environmental Engineering, Hanbat National University, Chair: Jin Chul Joo</t>
+  </si>
+  <si>
+    <t>Jul. 18, 2024</t>
+  </si>
+  <si>
+    <t>Foundational Approaches to Predicting Carbon Dynamics and Greenhouse Gas Emissions in Cropland Ecosystems</t>
   </si>
 </sst>
 </file>
@@ -485,7 +542,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -509,6 +566,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -553,7 +617,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -587,6 +651,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -606,9 +671,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -646,7 +711,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -752,7 +817,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -894,7 +959,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -902,28 +967,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D849796-8D2F-2144-8637-FA01837A8DE5}">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="49.375" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="49.33203125" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.375" customWidth="1"/>
-    <col min="9" max="9" width="27.625" customWidth="1"/>
+    <col min="8" max="8" width="35.33203125" customWidth="1"/>
+    <col min="9" max="9" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -961,7 +1026,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="17">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -984,7 +1049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="34">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -995,7 +1060,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="17">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1018,7 +1083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="17">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1026,7 +1091,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="17">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1049,7 +1114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="7" customFormat="1" ht="17">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -1068,7 +1133,7 @@
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="17">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1090,7 +1155,7 @@
       <c r="H8" s="1"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="17">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1112,7 +1177,7 @@
       <c r="H9" s="1"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="17">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1134,7 +1199,7 @@
       <c r="H10" s="1"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="17">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1156,7 +1221,7 @@
       <c r="H11" s="1"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="17">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1171,7 +1236,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1186,7 +1251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="17">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1201,7 +1266,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1216,7 +1281,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="17">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1231,7 +1296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="17">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1248,7 +1313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="17">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1268,7 +1333,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="17">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1285,7 +1350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="34">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1301,508 +1366,646 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="12" customFormat="1">
       <c r="D21" s="13"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="68">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B22">
         <v>2022</v>
       </c>
+      <c r="C22">
+        <v>2023</v>
+      </c>
       <c r="D22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="20" t="s">
         <v>135</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>136</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="I22" s="19"/>
     </row>
-    <row r="23" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="34">
       <c r="A23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" ht="51">
+      <c r="A24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" ht="51">
+      <c r="A25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" ht="51">
+      <c r="A26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B23" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G26" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G27" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G28" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" s="15" customFormat="1">
+      <c r="D28" s="17"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="G29" s="3">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>110</v>
       </c>
       <c r="G30" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="G31" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G32" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="G33" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>30</v>
       </c>
       <c r="C34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G34" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G36" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G37" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E38" t="s">
         <v>86</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F38" t="s">
         <v>88</v>
       </c>
-      <c r="G34">
+      <c r="G38">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="16"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" t="s">
-        <v>139</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E36" t="s">
-        <v>141</v>
-      </c>
-      <c r="F36" t="s">
-        <v>121</v>
-      </c>
-      <c r="G36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" t="s">
-        <v>124</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F37" t="s">
-        <v>110</v>
-      </c>
-      <c r="G37">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>102</v>
-      </c>
-      <c r="C38" t="s">
-        <v>119</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E38" t="s">
-        <v>120</v>
-      </c>
-      <c r="F38" t="s">
-        <v>121</v>
-      </c>
-      <c r="G38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E39" t="s">
-        <v>117</v>
-      </c>
-      <c r="F39" t="s">
-        <v>118</v>
-      </c>
-      <c r="G39">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" s="15" customFormat="1">
+      <c r="D39" s="16"/>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>102</v>
       </c>
       <c r="C40" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E41" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E42" t="s">
+        <v>150</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E43" t="s">
+        <v>139</v>
+      </c>
+      <c r="F43" t="s">
+        <v>121</v>
+      </c>
+      <c r="G43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" t="s">
+        <v>124</v>
+      </c>
+      <c r="F44" t="s">
+        <v>110</v>
+      </c>
+      <c r="G44">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" t="s">
+        <v>120</v>
+      </c>
+      <c r="F45" t="s">
+        <v>121</v>
+      </c>
+      <c r="G45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" t="s">
+        <v>118</v>
+      </c>
+      <c r="G46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E47" t="s">
         <v>105</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F47" t="s">
         <v>106</v>
       </c>
-      <c r="G40">
+      <c r="G47">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>41</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>41</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" ht="17">
       <c r="A49" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="17">
       <c r="A50" t="s">
         <v>41</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="17">
       <c r="A51" t="s">
         <v>41</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="17">
+      <c r="A52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="17">
+      <c r="A53" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="17">
+      <c r="A54" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="17">
+      <c r="A55" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="17">
+      <c r="A56" t="s">
+        <v>41</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="17">
+      <c r="A57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="17">
+      <c r="A58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="59" spans="1:8" ht="17">
+      <c r="A59" t="s">
         <v>42</v>
       </c>
-      <c r="C52">
+      <c r="C59">
         <v>2017</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E59" t="s">
         <v>73</v>
       </c>
-      <c r="H52" s="10">
+      <c r="H59" s="10">
         <v>5000</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="60" spans="1:8" ht="17">
+      <c r="A60" t="s">
         <v>42</v>
       </c>
-      <c r="C53">
+      <c r="C60">
         <v>2016</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E60" t="s">
         <v>73</v>
       </c>
-      <c r="H53" s="11">
+      <c r="H60" s="11">
         <v>5000</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="61" spans="1:8" ht="17">
+      <c r="A61" t="s">
         <v>42</v>
       </c>
-      <c r="C54">
+      <c r="C61">
         <v>2014</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E61" t="s">
         <v>101</v>
       </c>
-      <c r="H54" s="10">
+      <c r="H61" s="10">
         <v>24000</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="62" spans="1:8" ht="17">
+      <c r="A62" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="63" spans="1:8" ht="17">
+      <c r="A63" t="s">
         <v>43</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="64" spans="1:8" ht="17">
+      <c r="A64" t="s">
         <v>46</v>
       </c>
-      <c r="B57">
+      <c r="B64">
         <v>2018</v>
       </c>
-      <c r="C57">
+      <c r="C64">
         <v>2019</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E64" t="s">
         <v>10</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H64" t="s">
         <v>48</v>
       </c>
     </row>

--- a/spark-cv/data/cv_entries.xlsx
+++ b/spark-cv/data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seonggyu.park/Documents/spark_gits/spark-web/public/spark-cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3753881A-CAAB-5140-8569-5DB95987D79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBFE072-DDFC-6443-B612-8E420A857E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18580" yWindow="-31220" windowWidth="38000" windowHeight="30960" xr2:uid="{658FACE9-883F-4F49-B936-65547CAA7E51}"/>
+    <workbookView xWindow="34500" yWindow="740" windowWidth="34060" windowHeight="26400" xr2:uid="{658FACE9-883F-4F49-B936-65547CAA7E51}"/>
   </bookViews>
   <sheets>
     <sheet name="cv_entries" sheetId="1" r:id="rId1"/>
@@ -198,9 +198,6 @@
     <t>COE Quantitative Curriculum Review Committee Member</t>
   </si>
   <si>
-    <t>Ph.D., in Civil Engineering, Groundwater Engineering</t>
-  </si>
-  <si>
     <t>*Dissertation:* Dissertation: Enhancement of Coupled Surface/Subsurface Flow Models in Watersheds: Analysis, Model Development, Optimization, and User Accessibility</t>
   </si>
   <si>
@@ -532,6 +529,9 @@
   </si>
   <si>
     <t>Foundational Approaches to Predicting Carbon Dynamics and Greenhouse Gas Emissions in Cropland Ecosystems</t>
+  </si>
+  <si>
+    <t>Ph.D. in Groundwater Engineering, Department of Civil &amp; Environmental Engineering</t>
   </si>
 </sst>
 </file>
@@ -970,10 +970,10 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1005,10 +1005,10 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1020,10 +1020,10 @@
         <v>6</v>
       </c>
       <c r="K1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" t="s">
         <v>62</v>
-      </c>
-      <c r="L1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17">
@@ -1037,13 +1037,13 @@
         <v>2018</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
         <v>73</v>
-      </c>
-      <c r="F2" t="s">
-        <v>74</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
@@ -1054,10 +1054,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="17">
@@ -1071,13 +1071,13 @@
         <v>2006</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" t="s">
         <v>76</v>
-      </c>
-      <c r="F4" t="s">
-        <v>77</v>
       </c>
       <c r="J4" t="s">
         <v>7</v>
@@ -1088,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="17">
@@ -1102,13 +1102,13 @@
         <v>2004</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" t="s">
         <v>76</v>
-      </c>
-      <c r="F6" t="s">
-        <v>77</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
@@ -1119,17 +1119,17 @@
         <v>11</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H7" s="9"/>
     </row>
@@ -1141,16 +1141,16 @@
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s">
         <v>78</v>
-      </c>
-      <c r="F8" t="s">
-        <v>79</v>
       </c>
       <c r="H8" s="1"/>
       <c r="L8" s="5"/>
@@ -1166,13 +1166,13 @@
         <v>21</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H9" s="1"/>
       <c r="L9" s="5"/>
@@ -1182,19 +1182,19 @@
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="D10" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" t="s">
         <v>81</v>
-      </c>
-      <c r="F10" t="s">
-        <v>82</v>
       </c>
       <c r="H10" s="1"/>
       <c r="L10" s="5"/>
@@ -1204,19 +1204,19 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H11" s="1"/>
       <c r="L11" s="5"/>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="22" spans="1:9" ht="68">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B22">
         <v>2022</v>
@@ -1383,10 +1383,10 @@
         <v>2023</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="20" t="s">
         <v>134</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>135</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1394,73 +1394,73 @@
     </row>
     <row r="23" spans="1:9" ht="34">
       <c r="A23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="F23" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:9" ht="51">
       <c r="A24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:9" ht="51">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:9" ht="51">
       <c r="A26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="B26" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E26" s="20" t="s">
+      <c r="F26" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1480,16 +1480,16 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="G29" s="3">
         <v>34</v>
@@ -1500,16 +1500,16 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G30" s="3">
         <v>8</v>
@@ -1520,16 +1520,16 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="G31" s="3">
         <v>6</v>
@@ -1540,16 +1540,16 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="F32" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G32" s="3">
         <v>15</v>
@@ -1560,16 +1560,16 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G33" s="3">
         <v>39</v>
@@ -1580,16 +1580,16 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G34" s="3">
         <v>20</v>
@@ -1600,16 +1600,16 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G35" s="3">
         <v>11</v>
@@ -1620,16 +1620,16 @@
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="G36" s="3">
         <v>20</v>
@@ -1640,16 +1640,16 @@
         <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G37" s="3">
         <v>20</v>
@@ -1660,16 +1660,16 @@
         <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" t="s">
         <v>85</v>
       </c>
-      <c r="E38" t="s">
-        <v>86</v>
-      </c>
       <c r="F38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G38">
         <v>7</v>
@@ -1680,19 +1680,19 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="E40" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="G40">
         <v>8</v>
@@ -1700,19 +1700,19 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C41" t="s">
+        <v>163</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="E41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G41">
         <v>8</v>
@@ -1720,19 +1720,19 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E42" t="s">
         <v>149</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="G42">
         <v>8</v>
@@ -1740,19 +1740,19 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D43" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" t="s">
         <v>138</v>
       </c>
-      <c r="E43" t="s">
-        <v>139</v>
-      </c>
       <c r="F43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G43">
         <v>8</v>
@@ -1760,19 +1760,19 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" t="s">
         <v>123</v>
       </c>
-      <c r="E44" t="s">
-        <v>124</v>
-      </c>
       <c r="F44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G44">
         <v>21</v>
@@ -1780,19 +1780,19 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C45" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45" t="s">
         <v>119</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>120</v>
-      </c>
-      <c r="F45" t="s">
-        <v>121</v>
       </c>
       <c r="G45">
         <v>10</v>
@@ -1800,19 +1800,19 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C46" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" t="s">
         <v>116</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>117</v>
-      </c>
-      <c r="F46" t="s">
-        <v>118</v>
       </c>
       <c r="G46">
         <v>8</v>
@@ -1820,20 +1820,20 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B47" s="21"/>
       <c r="C47" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" t="s">
         <v>104</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>105</v>
-      </c>
-      <c r="F47" t="s">
-        <v>106</v>
       </c>
       <c r="G47">
         <v>17</v>
@@ -1930,10 +1930,10 @@
         <v>2017</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H59" s="10">
         <v>5000</v>
@@ -1947,10 +1947,10 @@
         <v>2016</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H60" s="11">
         <v>5000</v>
@@ -1964,10 +1964,10 @@
         <v>2014</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E61" t="s">
         <v>100</v>
-      </c>
-      <c r="E61" t="s">
-        <v>101</v>
       </c>
       <c r="H61" s="10">
         <v>24000</v>
@@ -1978,7 +1978,7 @@
         <v>43</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="17">
@@ -1986,7 +1986,7 @@
         <v>43</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="17">

--- a/spark-cv/data/cv_entries.xlsx
+++ b/spark-cv/data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seonggyu.park/Documents/spark_gits/spark-web/public/spark-cv/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spark\Documents\spark-webs\spark-web\public\spark-cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBFE072-DDFC-6443-B612-8E420A857E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD8A128-99A9-4D3E-95BE-1B880610A46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34500" yWindow="740" windowWidth="34060" windowHeight="26400" xr2:uid="{658FACE9-883F-4F49-B936-65547CAA7E51}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{658FACE9-883F-4F49-B936-65547CAA7E51}"/>
   </bookViews>
   <sheets>
     <sheet name="cv_entries" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="179">
   <si>
     <t>type</t>
   </si>
@@ -213,9 +213,6 @@
     <t>*Thesis:* A study on Adsorption Characteristics of VOCs on Activated Carbon</t>
   </si>
   <si>
-    <t>Apr. 2021</t>
-  </si>
-  <si>
     <t>Assistant Research Scientist</t>
   </si>
   <si>
@@ -507,24 +504,9 @@
     <t>Fall 2024</t>
   </si>
   <si>
-    <t>Co-promotor</t>
-  </si>
-  <si>
-    <t>Master program in Water and Climate Department, Vrije Universiteit Brussel</t>
-  </si>
-  <si>
-    <t>Brussel, Belguim</t>
-  </si>
-  <si>
-    <t>Spring 2025</t>
-  </si>
-  <si>
     <t>Kangwei Shin from China, Master program in Civil &amp; Environmental Engineering, Hanbat National University, Chair: Jin Chul Joo</t>
   </si>
   <si>
-    <t>Suryeon Kim from China, Master program in Civil &amp; Environmental Engineering, Hanbat National University, Chair: Jin Chul Joo</t>
-  </si>
-  <si>
     <t>Jul. 18, 2024</t>
   </si>
   <si>
@@ -532,6 +514,63 @@
   </si>
   <si>
     <t>Ph.D. in Groundwater Engineering, Department of Civil &amp; Environmental Engineering</t>
+  </si>
+  <si>
+    <t>Aug. 2025</t>
+  </si>
+  <si>
+    <t>Assistant Professor of Hydrologic Modeling</t>
+  </si>
+  <si>
+    <t>Lubbock, TX, United States</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>Department of Civil, Environmetal &amp; Construction Engineering, Texas Tech University</t>
+  </si>
+  <si>
+    <t>2025 International SWAT Conference</t>
+  </si>
+  <si>
+    <t>Jeju, South Korea</t>
+  </si>
+  <si>
+    <t>Applying the gwflow module in a SWAT+ model</t>
+  </si>
+  <si>
+    <t>June 23-24, 2025</t>
+  </si>
+  <si>
+    <t>Jul. 9, 2025</t>
+  </si>
+  <si>
+    <t>Toward Water Sustainability: Hydrologic Modeling Strategies and Applications</t>
+  </si>
+  <si>
+    <t>Hankyong National University</t>
+  </si>
+  <si>
+    <t>Anseong, South Korea</t>
+  </si>
+  <si>
+    <t>Suryeon Kim from South Korea, Master program in Civil &amp; Environmental Engineering, Hanbat National University, Chair: Jin Chul Joo</t>
+  </si>
+  <si>
+    <t>teaching</t>
+  </si>
+  <si>
+    <t>Fall 2025</t>
+  </si>
+  <si>
+    <t>Instructor</t>
+  </si>
+  <si>
+    <t>Texas Tech University</t>
+  </si>
+  <si>
+    <t>CE 3354: Engineering Hydrology</t>
   </si>
 </sst>
 </file>
@@ -542,7 +581,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -578,7 +617,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -603,6 +642,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -617,7 +662,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -652,6 +697,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -967,28 +1022,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D849796-8D2F-2144-8637-FA01837A8DE5}">
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="49.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="49.3984375" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.33203125" customWidth="1"/>
-    <col min="9" max="9" width="27.6640625" customWidth="1"/>
+    <col min="8" max="8" width="35.3984375" customWidth="1"/>
+    <col min="9" max="9" width="27.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1005,10 +1060,10 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1020,13 +1075,13 @@
         <v>6</v>
       </c>
       <c r="K1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="17">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1037,19 +1092,19 @@
         <v>2018</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
         <v>72</v>
-      </c>
-      <c r="F2" t="s">
-        <v>73</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="34">
+    <row r="3" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1060,7 +1115,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="17">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1074,16 +1129,16 @@
         <v>56</v>
       </c>
       <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" t="s">
         <v>75</v>
-      </c>
-      <c r="F4" t="s">
-        <v>76</v>
       </c>
       <c r="J4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="17">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1091,7 +1146,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="17">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1105,907 +1160,986 @@
         <v>57</v>
       </c>
       <c r="E6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" t="s">
         <v>75</v>
-      </c>
-      <c r="F6" t="s">
-        <v>76</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="7" customFormat="1" ht="17">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="E8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:12" ht="17">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" ht="17">
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H9" s="1"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12" ht="17">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H10" s="1"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12" ht="17">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H11" s="1"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12" ht="17">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>51</v>
+        <v>70</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>82</v>
+      </c>
+      <c r="F12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>14</v>
+        <v>50</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="3">
-        <v>2018</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>15</v>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>17</v>
+      <c r="C15" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="3">
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3">
         <v>2016</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="17">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B18">
-        <v>2018</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
       </c>
-      <c r="I18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="17">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="34">
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B20">
+        <v>2019</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" s="12" customFormat="1">
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="1:9" ht="68">
-      <c r="A22" t="s">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23">
+        <v>2022</v>
+      </c>
+      <c r="C23">
+        <v>2023</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B22">
-        <v>2022</v>
-      </c>
-      <c r="C22">
-        <v>2023</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="E23" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="E22" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="I22" s="19"/>
-    </row>
-    <row r="23" spans="1:9" ht="34">
-      <c r="A23" t="s">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="B23" t="s">
-        <v>160</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" ht="51">
-      <c r="A24" t="s">
-        <v>141</v>
-      </c>
-      <c r="B24" t="s">
-        <v>156</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" ht="51">
-      <c r="A25" t="s">
-        <v>141</v>
-      </c>
-      <c r="B25" t="s">
-        <v>156</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" ht="51">
-      <c r="A26" t="s">
-        <v>141</v>
-      </c>
-      <c r="B26" t="s">
-        <v>140</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E26" s="20" t="s">
+      <c r="F26" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:9">
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" s="15" customFormat="1">
-      <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" t="s">
-        <v>144</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G29" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" t="s">
-        <v>136</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G30" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" t="s">
-        <v>128</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G31" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" t="s">
-        <v>125</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G32" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+    <row r="27" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="25"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G28" s="4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E29" s="20"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="17"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="17"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+    </row>
+    <row r="33" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
+      <c r="B33"/>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="G33" s="3">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="G34" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="G35" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="G36" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="G37" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G41" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G42" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" t="s">
         <v>84</v>
       </c>
-      <c r="E38" t="s">
-        <v>85</v>
-      </c>
-      <c r="F38" t="s">
-        <v>87</v>
-      </c>
-      <c r="G38">
+      <c r="F43" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="15" customFormat="1">
-      <c r="D39" s="16"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" t="s">
+    <row r="44" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="16"/>
+    </row>
+    <row r="45" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G45" s="23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="E46" t="s">
+        <v>76</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G40">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" t="s">
-        <v>163</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E41" t="s">
-        <v>138</v>
-      </c>
-      <c r="F41" t="s">
-        <v>120</v>
-      </c>
-      <c r="G41">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" t="s">
-        <v>151</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E42" t="s">
-        <v>149</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G42">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E43" t="s">
-        <v>138</v>
-      </c>
-      <c r="F43" t="s">
-        <v>120</v>
-      </c>
-      <c r="G43">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" t="s">
-        <v>153</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E44" t="s">
-        <v>123</v>
-      </c>
-      <c r="F44" t="s">
-        <v>109</v>
-      </c>
-      <c r="G44">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" t="s">
-        <v>118</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E45" t="s">
-        <v>119</v>
-      </c>
-      <c r="F45" t="s">
-        <v>120</v>
-      </c>
-      <c r="G45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" t="s">
-        <v>114</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E46" t="s">
-        <v>116</v>
-      </c>
-      <c r="F46" t="s">
-        <v>117</v>
       </c>
       <c r="G46">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" t="s">
+        <v>157</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E47" t="s">
+        <v>137</v>
+      </c>
+      <c r="F47" t="s">
+        <v>119</v>
+      </c>
+      <c r="G47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" t="s">
+        <v>150</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E48" t="s">
+        <v>148</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E49" t="s">
+        <v>137</v>
+      </c>
+      <c r="F49" t="s">
+        <v>119</v>
+      </c>
+      <c r="G49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50" t="s">
+        <v>122</v>
+      </c>
+      <c r="F50" t="s">
+        <v>108</v>
+      </c>
+      <c r="G50">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51" t="s">
+        <v>119</v>
+      </c>
+      <c r="G51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E52" t="s">
+        <v>115</v>
+      </c>
+      <c r="F52" t="s">
+        <v>116</v>
+      </c>
+      <c r="G52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21" t="s">
+      <c r="D53" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="E53" t="s">
         <v>103</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F53" t="s">
         <v>104</v>
       </c>
-      <c r="F47" t="s">
-        <v>105</v>
-      </c>
-      <c r="G47">
+      <c r="G53">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:8" ht="17">
-      <c r="A49" t="s">
-        <v>41</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="17">
-      <c r="A50" t="s">
-        <v>41</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="17">
-      <c r="A51" t="s">
-        <v>41</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="17">
-      <c r="A52" t="s">
-        <v>41</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="17">
-      <c r="A53" t="s">
-        <v>41</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="17">
-      <c r="A54" t="s">
-        <v>41</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="17">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>41</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>41</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>41</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="17">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>41</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>41</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="17">
-      <c r="A59" t="s">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>42</v>
       </c>
-      <c r="C59">
+      <c r="C65">
         <v>2017</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D65" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E65" t="s">
+        <v>71</v>
+      </c>
+      <c r="H65" s="10">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66">
+        <v>2016</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E66" t="s">
+        <v>71</v>
+      </c>
+      <c r="H66" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67">
+        <v>2014</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E59" t="s">
-        <v>72</v>
-      </c>
-      <c r="H59" s="10">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="17">
-      <c r="A60" t="s">
-        <v>42</v>
-      </c>
-      <c r="C60">
-        <v>2016</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E60" t="s">
-        <v>72</v>
-      </c>
-      <c r="H60" s="11">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="17">
-      <c r="A61" t="s">
-        <v>42</v>
-      </c>
-      <c r="C61">
-        <v>2014</v>
-      </c>
-      <c r="D61" s="1" t="s">
+      <c r="E67" t="s">
         <v>99</v>
       </c>
-      <c r="E61" t="s">
-        <v>100</v>
-      </c>
-      <c r="H61" s="10">
+      <c r="H67" s="10">
         <v>24000</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="17">
-      <c r="A62" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>43</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="17">
-      <c r="A63" t="s">
+      <c r="D68" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="17">
-      <c r="A64" t="s">
+      <c r="D69" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>46</v>
       </c>
-      <c r="B64">
+      <c r="B70">
         <v>2018</v>
       </c>
-      <c r="C64">
+      <c r="C70">
         <v>2019</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E70" t="s">
         <v>10</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H70" t="s">
         <v>48</v>
       </c>
     </row>
